--- a/oci_tools/automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/oci_tools/automation_toolkit/example/CD3-Blank-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5382,6 +5382,127 @@
     <t>flexible</t>
   </si>
   <si>
+    <t>DB System Display Name</t>
+  </si>
+  <si>
+    <t>Node Count</t>
+  </si>
+  <si>
+    <t>CPU Core Count</t>
+  </si>
+  <si>
+    <t>Database Edition</t>
+  </si>
+  <si>
+    <t>Data Storage Size in GB</t>
+  </si>
+  <si>
+    <t>Data Storage Percentage</t>
+  </si>
+  <si>
+    <t>Disk Redundancy</t>
+  </si>
+  <si>
+    <t>License Model</t>
+  </si>
+  <si>
+    <t>DB Workload</t>
+  </si>
+  <si>
+    <t>Enable Automatic Backups</t>
+  </si>
+  <si>
+    <t>Back up Retention Period</t>
+  </si>
+  <si>
+    <t>VM.Standard1.1</t>
+  </si>
+  <si>
+    <t>VM.Standard1.2</t>
+  </si>
+  <si>
+    <t>VM.Standard1.4</t>
+  </si>
+  <si>
+    <t>VM.Standard1.8</t>
+  </si>
+  <si>
+    <t>VM.Standard1.16</t>
+  </si>
+  <si>
+    <t>Shapes</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>DB workload</t>
+  </si>
+  <si>
+    <t>Exadata Infra Display Name</t>
+  </si>
+  <si>
+    <t>Database Servers</t>
+  </si>
+  <si>
+    <t>Storage Servers</t>
+  </si>
+  <si>
+    <t>Exadata.X8M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                             Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+  </si>
+  <si>
+    <t>VM Cluster Display Name</t>
+  </si>
+  <si>
+    <t>Client Subnet Name</t>
+  </si>
+  <si>
+    <t>Oracle Grid Infrastructure Version</t>
+  </si>
+  <si>
+    <t>Allocate storage for Exadata sparse snapshots</t>
+  </si>
+  <si>
+    <t>Allocate storage for local backups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.12.0.0 </t>
+  </si>
+  <si>
+    <t>18.13.0.0</t>
+  </si>
+  <si>
+    <t>18.14.0.0</t>
+  </si>
+  <si>
+    <t>19.10.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.0.0 </t>
+  </si>
+  <si>
+    <t>19.12.0.0</t>
+  </si>
+  <si>
+    <t>21.0.0.0</t>
+  </si>
+  <si>
+    <t>21.3.0.0</t>
+  </si>
+  <si>
+    <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -5437,7 +5558,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">v8.0.2
+      <t xml:space="preserve">v9
 </t>
     </r>
     <r>
@@ -5448,130 +5569,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
 </t>
     </r>
-  </si>
-  <si>
-    <t>DB System Display Name</t>
-  </si>
-  <si>
-    <t>Node Count</t>
-  </si>
-  <si>
-    <t>CPU Core Count</t>
-  </si>
-  <si>
-    <t>Database Edition</t>
-  </si>
-  <si>
-    <t>Data Storage Size in GB</t>
-  </si>
-  <si>
-    <t>Data Storage Percentage</t>
-  </si>
-  <si>
-    <t>Disk Redundancy</t>
-  </si>
-  <si>
-    <t>License Model</t>
-  </si>
-  <si>
-    <t>DB Workload</t>
-  </si>
-  <si>
-    <t>Enable Automatic Backups</t>
-  </si>
-  <si>
-    <t>Back up Retention Period</t>
-  </si>
-  <si>
-    <t>VM.Standard1.1</t>
-  </si>
-  <si>
-    <t>VM.Standard1.2</t>
-  </si>
-  <si>
-    <t>VM.Standard1.4</t>
-  </si>
-  <si>
-    <t>VM.Standard1.8</t>
-  </si>
-  <si>
-    <t>VM.Standard1.16</t>
-  </si>
-  <si>
-    <t>Shapes</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>DB workload</t>
-  </si>
-  <si>
-    <t>Exadata Infra Display Name</t>
-  </si>
-  <si>
-    <t>Database Servers</t>
-  </si>
-  <si>
-    <t>Storage Servers</t>
-  </si>
-  <si>
-    <t>Exadata.X8M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                             Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-  </si>
-  <si>
-    <t>VM Cluster Display Name</t>
-  </si>
-  <si>
-    <t>Client Subnet Name</t>
-  </si>
-  <si>
-    <t>Oracle Grid Infrastructure Version</t>
-  </si>
-  <si>
-    <t>Allocate storage for Exadata sparse snapshots</t>
-  </si>
-  <si>
-    <t>Allocate storage for local backups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.12.0.0 </t>
-  </si>
-  <si>
-    <t>18.13.0.0</t>
-  </si>
-  <si>
-    <t>18.14.0.0</t>
-  </si>
-  <si>
-    <t>19.10.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.11.0.0 </t>
-  </si>
-  <si>
-    <t>19.12.0.0</t>
-  </si>
-  <si>
-    <t>21.0.0.0</t>
-  </si>
-  <si>
-    <t>21.3.0.0</t>
-  </si>
-  <si>
-    <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
   </si>
 </sst>
 </file>
@@ -6360,6 +6360,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6422,28 +6444,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9939,7 +9939,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -9950,7 +9950,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="68" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -9989,28 +9989,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="121" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
     </row>
     <row r="2" spans="1:18" s="44" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -10299,12 +10299,12 @@
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="K14" s="46"/>
-      <c r="L14" s="133"/>
+      <c r="L14" s="112"/>
       <c r="M14" s="46"/>
       <c r="N14" s="46"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
       <c r="R14" s="65"/>
     </row>
     <row r="15" spans="1:18" s="77" customFormat="1" ht="27" customHeight="1">
@@ -10319,12 +10319,12 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="46"/>
-      <c r="L15" s="133"/>
+      <c r="L15" s="112"/>
       <c r="M15" s="46"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="133"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
       <c r="R15" s="46"/>
     </row>
     <row r="16" spans="1:18" s="77" customFormat="1" ht="28.75" customHeight="1">
@@ -10339,12 +10339,12 @@
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="133"/>
+      <c r="L16" s="112"/>
       <c r="M16" s="46"/>
       <c r="N16" s="46"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="133"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
       <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" s="77" customFormat="1">
@@ -10359,12 +10359,12 @@
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
-      <c r="L17" s="133"/>
+      <c r="L17" s="112"/>
       <c r="M17" s="46"/>
       <c r="N17" s="46"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
       <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" s="77" customFormat="1">
@@ -10379,12 +10379,12 @@
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
-      <c r="L18" s="133"/>
+      <c r="L18" s="112"/>
       <c r="M18" s="46"/>
       <c r="N18" s="46"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
       <c r="R18" s="46"/>
     </row>
     <row r="19" spans="1:18" s="77" customFormat="1">
@@ -10399,12 +10399,12 @@
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="46"/>
-      <c r="L19" s="133"/>
+      <c r="L19" s="112"/>
       <c r="M19" s="46"/>
       <c r="N19" s="46"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
       <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" s="77" customFormat="1"/>
@@ -10432,11 +10432,11 @@
     <row r="42" spans="13:14" s="77" customFormat="1"/>
     <row r="43" spans="13:14">
       <c r="M43" s="37" t="str">
-        <f t="shared" ref="M4:M67" si="0">IF(G43="public","n",IF(G43="private","y",""))</f>
+        <f t="shared" ref="M43:M67" si="0">IF(G43="public","n",IF(G43="private","y",""))</f>
         <v/>
       </c>
       <c r="N43" s="37" t="str">
-        <f t="shared" ref="N4:N67" si="1">IF(G43="public","y",IF(G43="private","n",""))</f>
+        <f t="shared" ref="N43:N67" si="1">IF(G43="public","y",IF(G43="private","n",""))</f>
         <v/>
       </c>
     </row>
@@ -15119,18 +15119,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -16727,17 +16727,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
@@ -16828,25 +16828,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
@@ -16977,28 +16977,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
@@ -17379,7 +17379,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
-      <c r="I17" s="134"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
@@ -17404,12 +17404,12 @@
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
       <c r="R18" s="65"/>
     </row>
     <row r="19" spans="1:20" s="77" customFormat="1" ht="31.75" customHeight="1">
@@ -17424,12 +17424,12 @@
       <c r="I19" s="46"/>
       <c r="J19" s="46"/>
       <c r="K19" s="46"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
       <c r="R19" s="65"/>
     </row>
     <row r="20" spans="1:20" s="77" customFormat="1" ht="31.75" customHeight="1">
@@ -17444,12 +17444,12 @@
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="46"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="133"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
       <c r="R20" s="65"/>
     </row>
     <row r="21" spans="1:20" s="77" customFormat="1" ht="31.75" customHeight="1">
@@ -17464,12 +17464,12 @@
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="133"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
       <c r="R21" s="65"/>
     </row>
     <row r="22" spans="1:20" s="77" customFormat="1"/>
@@ -17563,15 +17563,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" s="44" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -17711,26 +17711,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="122" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="107" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="115" t="s">
         <v>415</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="109"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="1:16" s="44" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -18015,18 +18015,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="109"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:10" s="44" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -18182,27 +18182,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="125" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="120" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -18472,26 +18472,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="122.5" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
     </row>
     <row r="2" spans="1:18" ht="43" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -18692,13 +18692,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
@@ -18862,29 +18862,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="109"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="117"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="39" t="s">
@@ -19120,29 +19120,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="110" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="118" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="122"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -19703,14 +19703,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="44" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="125"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -19819,24 +19819,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -20004,17 +20004,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="134" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -20141,34 +20141,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="52" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="109"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="117"/>
     </row>
     <row r="2" spans="1:26" s="63" customFormat="1" ht="43.5">
       <c r="A2" s="66" t="s">
@@ -20184,31 +20184,31 @@
         <v>29</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F2" s="66" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="66" t="s">
+        <v>504</v>
+      </c>
+      <c r="H2" s="66" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="I2" s="66" t="s">
         <v>506</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="J2" s="66" t="s">
         <v>507</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="K2" s="89" t="s">
         <v>508</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="L2" s="66" t="s">
         <v>509</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="M2" s="67" t="s">
         <v>510</v>
-      </c>
-      <c r="M2" s="67" t="s">
-        <v>511</v>
       </c>
       <c r="N2" s="66" t="s">
         <v>260</v>
@@ -20226,10 +20226,10 @@
         <v>263</v>
       </c>
       <c r="S2" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="T2" s="66" t="s">
         <v>512</v>
-      </c>
-      <c r="T2" s="66" t="s">
-        <v>513</v>
       </c>
       <c r="U2" s="66" t="s">
         <v>72</v>
@@ -20241,7 +20241,7 @@
         <v>228</v>
       </c>
       <c r="X2" s="66" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Y2" s="66" t="s">
         <v>417</v>
@@ -26479,16 +26479,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
-      <c r="A1" s="107" t="s">
-        <v>528</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="A1" s="115" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="89" t="s">
@@ -26498,7 +26498,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D2" s="89" t="s">
         <v>66</v>
@@ -26507,10 +26507,10 @@
         <v>67</v>
       </c>
       <c r="F2" s="89" t="s">
+        <v>524</v>
+      </c>
+      <c r="G2" s="89" t="s">
         <v>525</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>526</v>
       </c>
       <c r="H2" s="92" t="s">
         <v>273</v>
@@ -32576,23 +32576,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="52" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
       <c r="P1" s="95"/>
       <c r="Q1" s="95"/>
       <c r="R1" s="95"/>
@@ -32611,34 +32611,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D2" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>529</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>530</v>
       </c>
       <c r="F2" s="89" t="s">
         <v>243</v>
       </c>
       <c r="G2" s="89" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I2" s="89" t="s">
         <v>260</v>
       </c>
       <c r="J2" s="89" t="s">
+        <v>530</v>
+      </c>
+      <c r="K2" s="89" t="s">
         <v>531</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="L2" s="89" t="s">
         <v>532</v>
-      </c>
-      <c r="L2" s="89" t="s">
-        <v>533</v>
       </c>
       <c r="M2" s="89" t="s">
         <v>72</v>
@@ -39538,22 +39538,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C1" s="58" t="s">
         <v>267</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1" s="49" t="s">
         <v>245</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G1" s="59" t="s">
         <v>228</v>
@@ -39562,13 +39562,13 @@
         <v>227</v>
       </c>
       <c r="I1" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="J1" s="91" t="s">
         <v>509</v>
       </c>
-      <c r="J1" s="91" t="s">
-        <v>510</v>
-      </c>
       <c r="K1" s="59" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -39600,7 +39600,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K2" s="38">
         <v>1</v>
@@ -39608,7 +39608,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="90" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>269</v>
@@ -39635,7 +39635,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="65" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K3" s="38">
         <v>2</v>
@@ -39643,7 +39643,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="90" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>241</v>
@@ -39665,7 +39665,7 @@
         <v>237</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>270</v>
@@ -39685,7 +39685,7 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
@@ -39698,11 +39698,11 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="90" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
@@ -39715,11 +39715,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="90" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
@@ -39753,7 +39753,7 @@
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
@@ -39766,11 +39766,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="90" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
@@ -39787,11 +39787,11 @@
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F12" s="38"/>
       <c r="H12" s="38" t="s">
@@ -39804,7 +39804,7 @@
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -39819,7 +39819,7 @@
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -43579,13 +43579,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
@@ -44513,16 +44513,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="44" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1">
       <c r="A2" s="7" t="s">
@@ -46618,20 +46618,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="110" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="112"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="42" t="s">
@@ -46666,9 +46666,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="77" customFormat="1" ht="28.75" customHeight="1">
-      <c r="A3" s="127"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="65"/>
-      <c r="C3" s="128"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="65"/>
       <c r="E3" s="65"/>
       <c r="F3" s="65"/>
@@ -46678,9 +46678,9 @@
       <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" s="77" customFormat="1">
-      <c r="A4" s="127"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="65"/>
-      <c r="C4" s="128"/>
+      <c r="C4" s="107"/>
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
       <c r="F4" s="65"/>
@@ -46690,7 +46690,7 @@
       <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:10" s="77" customFormat="1">
-      <c r="A5" s="129"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
@@ -46698,8 +46698,8 @@
       <c r="F5" s="46"/>
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="129"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" s="77" customFormat="1" ht="28.75" customHeight="1">
       <c r="A6" s="46"/>
@@ -46810,99 +46810,99 @@
       <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" s="77" customFormat="1">
-      <c r="A15" s="131"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="131"/>
+      <c r="A15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="110"/>
     </row>
     <row r="16" spans="1:10" s="77" customFormat="1">
-      <c r="A16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="131"/>
+      <c r="A16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="110"/>
     </row>
     <row r="17" spans="1:10" s="77" customFormat="1">
-      <c r="A17" s="131"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="131"/>
+      <c r="A17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="110"/>
     </row>
     <row r="18" spans="1:10" s="77" customFormat="1">
-      <c r="A18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="131"/>
+      <c r="A18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="110"/>
     </row>
     <row r="19" spans="1:10" s="77" customFormat="1">
-      <c r="A19" s="131"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="131"/>
+      <c r="A19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="110"/>
     </row>
     <row r="20" spans="1:10" s="77" customFormat="1">
-      <c r="A20" s="131"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="131"/>
+      <c r="A20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="110"/>
     </row>
     <row r="21" spans="1:10" s="77" customFormat="1">
-      <c r="A21" s="131"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="131"/>
+      <c r="A21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="110"/>
     </row>
     <row r="22" spans="1:10" s="77" customFormat="1">
-      <c r="A22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="131"/>
+      <c r="A22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="110"/>
     </row>
     <row r="23" spans="1:10" s="77" customFormat="1">
-      <c r="A23" s="131"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="131"/>
+      <c r="A23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="110"/>
     </row>
     <row r="24" spans="1:10" s="77" customFormat="1">
-      <c r="A24" s="131"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="131"/>
+      <c r="A24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="110"/>
     </row>
     <row r="25" spans="1:10" s="77" customFormat="1">
-      <c r="A25" s="131"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="131"/>
+      <c r="A25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="110"/>
     </row>
     <row r="26" spans="1:10" s="77" customFormat="1">
-      <c r="A26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="131"/>
+      <c r="A26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="110"/>
     </row>
     <row r="27" spans="1:10" s="77" customFormat="1">
-      <c r="A27" s="131"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="131"/>
+      <c r="A27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="110"/>
     </row>
     <row r="28" spans="1:10" s="77" customFormat="1">
-      <c r="A28" s="131"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="131"/>
+      <c r="A28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="110"/>
     </row>
     <row r="29" spans="1:10" s="77" customFormat="1">
-      <c r="A29" s="131"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="131"/>
+      <c r="A29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="110"/>
     </row>
     <row r="30" spans="1:10" s="77" customFormat="1">
-      <c r="A30" s="131"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="131"/>
+      <c r="A30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="110"/>
     </row>
     <row r="31" spans="1:10" s="77" customFormat="1">
-      <c r="A31" s="131"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="131"/>
+      <c r="A31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="110"/>
     </row>
     <row r="32" spans="1:10" s="77" customFormat="1">
-      <c r="A32" s="131"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="131"/>
+      <c r="A32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="110"/>
     </row>
     <row r="33" spans="1:10" s="77" customFormat="1">
-      <c r="A33" s="131"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="131"/>
+      <c r="A33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -46978,22 +46978,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="37" customFormat="1" ht="187.75" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="107" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="115" t="s">
         <v>294</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="109"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -47196,17 +47196,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="107" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="108"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="74" t="s">
@@ -47552,10 +47552,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="121.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="120"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -47611,16 +47611,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="114" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="11" t="s">
